--- a/Resposta ao Degrau.xlsx
+++ b/Resposta ao Degrau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -3440,6 +3440,1206 @@
         </is>
       </c>
       <c r="B251" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
         <is>
           <t>11</t>
         </is>
